--- a/planinha Produtos/produtos.xlsx
+++ b/planinha Produtos/produtos.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Documents\GitHub\megamoveisalagoas\planinha Produtos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{007F1824-1F65-471E-AB31-C3002E278A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5742E08-1505-40A7-A628-4F4226529208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{4C12D40B-3441-4D12-9D56-069EA3E70133}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26C1B80-42C4-4160-9943-E5044CAF4B9A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sala de Estar" sheetId="1" r:id="rId1"/>
-    <sheet name="Quarto" sheetId="2" r:id="rId2"/>
+    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,57 +25,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Nome:</t>
-  </si>
-  <si>
-    <t>Valor:</t>
-  </si>
-  <si>
-    <t>Detalhes:</t>
-  </si>
-  <si>
-    <t>Estrelas:</t>
-  </si>
-  <si>
-    <t>Altura: 85 cm; Largura: 200cm; Profundidade: 80cm; Peso: 47kg</t>
-  </si>
-  <si>
-    <t>Foto:</t>
-  </si>
-  <si>
-    <t>Puff Banqueta Retangular Suede Liso Cinza - DS Móveis</t>
-  </si>
-  <si>
-    <t>5/5</t>
-  </si>
-  <si>
-    <t>img\puffBanquetaRetangular.png</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
+  <si>
+    <t>Promoção</t>
+  </si>
+  <si>
+    <t>Preço Promo</t>
+  </si>
+  <si>
+    <t>Estoque</t>
+  </si>
+  <si>
+    <t>Descrição Resumida</t>
+  </si>
+  <si>
+    <t>Sofá 3 Lugares Retrátil</t>
+  </si>
+  <si>
+    <t>Sala de Estar</t>
+  </si>
+  <si>
+    <t>2499.9</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>1999.9</t>
+  </si>
+  <si>
+    <t>Sofá retrátil em couro sintético, várias cores</t>
+  </si>
+  <si>
+    <t>Cama Queen Size com Colchão</t>
+  </si>
+  <si>
+    <t>Quarto</t>
+  </si>
+  <si>
+    <t>Cama queen com cabeceira estofada + colchão ortopédico</t>
+  </si>
+  <si>
+    <t>Mesa de Jantar 6 Lugares</t>
+  </si>
+  <si>
+    <t>Sala de Jantar</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Mesa com tampo em vidro + 6 cadeiras</t>
+  </si>
+  <si>
+    <t>Escrivaninha com Gavetas</t>
+  </si>
+  <si>
+    <t>Escritório</t>
+  </si>
+  <si>
+    <t>699.9</t>
+  </si>
+  <si>
+    <t>Compacta com 3 gavetas, ideal para home office</t>
+  </si>
+  <si>
+    <t>Armário de Cozinha</t>
+  </si>
+  <si>
+    <t>Cozinha</t>
+  </si>
+  <si>
+    <t>Armário com 2 portas e 3 prateleiras, cores branco/marrom</t>
+  </si>
+  <si>
+    <t>Conjunto Banheiro</t>
+  </si>
+  <si>
+    <t>Banheiro</t>
+  </si>
+  <si>
+    <t>Armário + espelho + prateleira (esgotado)</t>
+  </si>
+  <si>
+    <t>Cama Infantil Solteiro</t>
+  </si>
+  <si>
+    <t>Infantil</t>
+  </si>
+  <si>
+    <t>Cama com proteção lateral, várias cores</t>
+  </si>
+  <si>
+    <t>Conjunto de Jardim</t>
+  </si>
+  <si>
+    <t>Área Externa</t>
+  </si>
+  <si>
+    <t>Mesa + 4 cadeiras em rattan sintético, resistente</t>
+  </si>
+  <si>
+    <t>Poltrona Reclinável</t>
+  </si>
+  <si>
+    <t>Reclinável com apoio para pés, tecido antimanchas</t>
+  </si>
+  <si>
+    <t>Guarda-Roupa Casal</t>
+  </si>
+  <si>
+    <t>3 portas com espelho e gavetas (2.10m x 1.80m)</t>
+  </si>
+  <si>
+    <t>Caminho Imagem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF11181C"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF303030"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,14 +186,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,69 +501,296 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AF8049-B215-4064-853D-272F4A6FDB37}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046A5910-9C89-43EE-ABF4-1EF7CA7C585B}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>1899</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>1599</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>1299</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>899</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>749</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>599</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>799</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>1299</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>1099</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>899</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>1599</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>54.91</v>
+      <c r="H11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87385BF8-A8DD-4FC1-A3DA-1824F7AF85D3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>